--- a/Sprint Backlog/Sprint2/Planning and Burndown/Initial Planning and Burndown Chart.xlsx
+++ b/Sprint Backlog/Sprint2/Planning and Burndown/Initial Planning and Burndown Chart.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Qi\Desktop\Team27\Sprint Backlog\Sprint2\Planning and Burndown\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3830C992-1F60-41BD-829C-A78F1765EC08}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA1628DA-64F4-4D5D-BD2B-0EE9F3F19216}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7635" xr2:uid="{E26ED3F2-7FF5-461C-B9EE-AAC597F16CF8}"/>
   </bookViews>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="37">
   <si>
     <t>User Stories</t>
   </si>
@@ -77,9 +77,6 @@
     <t>7</t>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
     <t>Column1</t>
   </si>
   <si>
@@ -153,6 +150,9 @@
   </si>
   <si>
     <t>T:2</t>
+  </si>
+  <si>
+    <t>T:1</t>
   </si>
 </sst>
 </file>
@@ -2227,7 +2227,7 @@
   <dimension ref="A1:L31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2273,7 +2273,7 @@
         <v>10</v>
       </c>
       <c r="L1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
@@ -2290,13 +2290,13 @@
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
       <c r="G2" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I2" s="2"/>
       <c r="J2" s="2"/>
       <c r="K2" s="2"/>
       <c r="L2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
@@ -2313,13 +2313,13 @@
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
       <c r="G3" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H3" s="2"/>
       <c r="J3" s="2"/>
       <c r="K3" s="2"/>
       <c r="L3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
@@ -2330,7 +2330,7 @@
         <v>3</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>11</v>
+        <v>36</v>
       </c>
       <c r="D4" s="3">
         <v>3</v>
@@ -2339,11 +2339,11 @@
       <c r="F4" s="2"/>
       <c r="H4" s="2"/>
       <c r="J4" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K4" s="2"/>
       <c r="L4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
@@ -2354,7 +2354,7 @@
         <v>4</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>11</v>
+        <v>35</v>
       </c>
       <c r="D5" s="3">
         <v>3</v>
@@ -2365,10 +2365,10 @@
       <c r="I5" s="2"/>
       <c r="J5" s="2"/>
       <c r="K5" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="L5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
@@ -2378,7 +2378,9 @@
       <c r="B6" s="2">
         <v>5</v>
       </c>
-      <c r="C6" s="2"/>
+      <c r="C6" s="2" t="s">
+        <v>36</v>
+      </c>
       <c r="D6" s="3">
         <v>3</v>
       </c>
@@ -2387,7 +2389,7 @@
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
       <c r="J6" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K6" s="2"/>
     </row>
@@ -2398,7 +2400,9 @@
       <c r="B7" s="2">
         <v>6</v>
       </c>
-      <c r="C7" s="2"/>
+      <c r="C7" s="2" t="s">
+        <v>35</v>
+      </c>
       <c r="D7" s="3">
         <v>3</v>
       </c>
@@ -2408,7 +2412,7 @@
       <c r="I7" s="2"/>
       <c r="J7" s="2"/>
       <c r="K7" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
@@ -2418,7 +2422,9 @@
       <c r="B8" s="2">
         <v>7</v>
       </c>
-      <c r="C8" s="2"/>
+      <c r="C8" s="2" t="s">
+        <v>36</v>
+      </c>
       <c r="D8" s="3">
         <v>3</v>
       </c>
@@ -2427,7 +2433,7 @@
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
       <c r="J8" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K8" s="2"/>
     </row>
@@ -2438,7 +2444,9 @@
       <c r="B9" s="2">
         <v>8</v>
       </c>
-      <c r="C9" s="2"/>
+      <c r="C9" s="2" t="s">
+        <v>35</v>
+      </c>
       <c r="D9" s="3">
         <v>3</v>
       </c>
@@ -2447,7 +2455,7 @@
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
       <c r="J9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K9" s="2"/>
     </row>
@@ -2458,7 +2466,9 @@
       <c r="B10" s="2">
         <v>9</v>
       </c>
-      <c r="C10" s="2"/>
+      <c r="C10" s="2" t="s">
+        <v>35</v>
+      </c>
       <c r="D10" s="3">
         <v>2</v>
       </c>
@@ -2467,7 +2477,7 @@
       <c r="G10" s="2"/>
       <c r="I10" s="2"/>
       <c r="J10" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K10" s="2"/>
     </row>
@@ -2478,7 +2488,9 @@
       <c r="B11" s="2">
         <v>10</v>
       </c>
-      <c r="C11" s="2"/>
+      <c r="C11" s="2" t="s">
+        <v>36</v>
+      </c>
       <c r="D11" s="3">
         <v>2</v>
       </c>
@@ -2488,7 +2500,7 @@
       <c r="I11" s="2"/>
       <c r="J11" s="2"/>
       <c r="K11" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
@@ -2498,7 +2510,9 @@
       <c r="B12" s="2">
         <v>11</v>
       </c>
-      <c r="C12" s="3"/>
+      <c r="C12" s="2" t="s">
+        <v>35</v>
+      </c>
       <c r="D12" s="2">
         <v>2</v>
       </c>
@@ -2507,7 +2521,7 @@
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
       <c r="J12" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K12" s="2"/>
     </row>
@@ -2518,7 +2532,9 @@
       <c r="B13" s="2">
         <v>12</v>
       </c>
-      <c r="C13" s="3"/>
+      <c r="C13" s="2" t="s">
+        <v>36</v>
+      </c>
       <c r="D13" s="2">
         <v>2</v>
       </c>
@@ -2528,14 +2544,14 @@
       <c r="I13" s="2"/>
       <c r="J13" s="2"/>
       <c r="K13" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="6"/>
       <c r="B14" s="7"/>
       <c r="C14" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D14" s="7">
         <f>SUBTOTAL(109,Table1[Story Points])</f>
@@ -2742,36 +2758,36 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" t="s">
         <v>12</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>13</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>14</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>15</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>16</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>17</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>18</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>19</v>
-      </c>
-      <c r="I1" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B2">
         <v>38</v>
@@ -2779,7 +2795,7 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -2808,7 +2824,7 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B4">
         <v>38</v>
@@ -2837,7 +2853,7 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B5">
         <v>38</v>
